--- a/biology/Botanique/Astrophytum_ornatum/Astrophytum_ornatum.xlsx
+++ b/biology/Botanique/Astrophytum_ornatum/Astrophytum_ornatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrophytum ornatum, le Cactus-étoile orné, est une espèce de plante grasse du genre Astrophytum et de la famille des Cactaceae.
 Découvert en 1827 par Thomas Coulter au Mexique (Hidalgo), ce cactus est décrit en 1828 par De Candolle avec la dénomination Echinocactus ornatus.
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (9 janvier 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (9 janvier 2016) (Attention liste brute contenant possiblement des synonymes) :
 Astrophytum ornatum var. glabrescens (K. Schum.) Krainz
 Astrophytum ornatum var. mirbelii (Lem.) Krainz
 Astrophytum ornatum var. niveum Schütz &amp; Fleisch.
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est originaire et endémique du Mexique central.
 </t>
@@ -578,7 +594,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est de taille moyenne, pouvant atteindre jusqu'à 30 cm de diamètre et parfois plus d' 1 mètre de haut.
 Elle présente en général 8 côtes très marquées avec des bouquets d'épines. Elle est parsemée de minuscules taches blanches.
